--- a/有恒社区文案库.xlsx
+++ b/有恒社区文案库.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-4500" yWindow="-19680" windowWidth="35740" windowHeight="16680" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2300" yWindow="-19680" windowWidth="35740" windowHeight="16680" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="正能量（早安）" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="142">
   <si>
     <t>【有恒APP】这世界从来不缺想法，不缺梦想，也不缺计划，而是缺少行动。计划了很久早起锻炼，在被窝里总可以找到理由放弃。梦想了很久成为福布斯富豪排行榜前十，在生活中却总陷入斤斤计较，思前顾后，只剩下儿女情长。有梦想就去追啊，哪怕迈出一小步，对于梦想与现实来说也是一大步。</t>
   </si>
@@ -316,66 +316,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.如何邀请用户办理信用卡？</t>
-  </si>
-  <si>
-    <t>2.如何邀请用户成为会员？</t>
-  </si>
-  <si>
     <t>进入有恒app首页→点击“邀请办卡”→下载海报/分享海报→客户扫描海报二维码→点击“立即加入有恒”→在浏览器中打开→Android版下载（安卓）/访问https://card.youheng-inc.com/#/（苹果）→登录→点击“升级会员”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.如何获得办卡佣金？</t>
-  </si>
-  <si>
     <t>平台除中信银行和光大银行外均已经实现自动结算（免查询，结算时间：申请后3-5个工作日左右），不需要查询进度即可获得办卡佣金。\n中信银行和和光大银行由于系统原因，暂时需要通过“进度查询”查到办卡成功，才能获得办卡佣金（会员或客户查询均可获得佣金）。\n会员可以进入平台后点击“订单明细”，再点击“进度查询”员可以进入平台后点击“订单明细”，再点击“进度查询”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.为什么迟迟查不到办卡成功？</t>
-  </si>
-  <si>
-    <t>5.为什么收不到佣金提醒、客户申请信用卡提醒？</t>
-  </si>
-  <si>
-    <t>6.为什么看不到客户申请的信用卡订单？</t>
-  </si>
-  <si>
-    <t>7.拿到卡十天了还是查不到办卡进度怎么办？</t>
-  </si>
-  <si>
-    <t>8.如何申请168会员费返还？</t>
-  </si>
-  <si>
-    <t>9.哪些银行好下卡，结算快？</t>
-  </si>
-  <si>
-    <t>10.什么是免查询、自动结算？</t>
-  </si>
-  <si>
-    <t>11.如何生成邀请海报？</t>
-  </si>
-  <si>
-    <t>12.白户办理信用卡推荐卡种？</t>
-  </si>
-  <si>
-    <t>13.办理信用卡需要填写哪些信息？</t>
-  </si>
-  <si>
-    <t>14.如何进入有恒平台？</t>
-  </si>
-  <si>
-    <t>15.为什么收到信用卡通过短信/收到信用卡，进度查询却显示拒绝？</t>
-  </si>
-  <si>
-    <t>16.邀请会员专属海报？</t>
-  </si>
-  <si>
-    <t>17.邀请好友办卡专属海报？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录有恒app→点击”首页“→点击“邀请办卡“--自动生成您的专属海报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,10 +348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请去银行官网进行查询（百度XX银行信用卡中心，点击进度查询）。如果在官网也查不到信息，请联系致电银行询问原因。若银行官网可查询到进度，请提供官网结果截图，申请人姓名、电话、身份证号以及申请的哪个银行提供给有恒客服（微信yhxwz001），帮您查询。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>活动期间（目前截止到2018年8月8日）成功邀请5位会员或者办卡10张，请加有恒客服（微信yhxwz001）要求现金返还。（后续将在页面上实现满足条件自动返还功能）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,11 +376,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yaoqingbanka.jpeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yaoqinghuiyuan.jpeg</t>
+    <t>如何邀请用户办理信用卡？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何邀请用户成为会员？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获得办卡佣金？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么迟迟查不到办卡成功？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么收不到佣金提醒、客户申请信用卡提醒？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么看不到客户申请的信用卡订单？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何申请168会员费返还？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪些银行好下卡，结算快？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是免查询、自动结算？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何生成邀请海报？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白户办理信用卡推荐卡种？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办理信用卡需要填写哪些信息？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何进入有恒平台？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么收到信用卡通过短信/收到信用卡，进度查询却显示拒绝？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请会员专属海报？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请好友办卡专属海报？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168会员费可以退吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有恒APP有哪些优势？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金会员如何收益？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白金会员如何收益？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuihuifei.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youshi.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangjinshouyi.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baijinshouyi.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石会员如何收益？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhuanshishouyi.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员晋升机制？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huiyuanjinsheng.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例分享会员分佣机制？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shilifenxiang.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请会员佣金图？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huiyuanyongjin.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请好友办卡佣金图？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haoyouyongjin.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金结算案例解读？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yongjinjiesuan.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1468,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1480,159 +1560,215 @@
     <col min="2" max="2" width="137.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    <row r="17" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>123</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="27" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1642,7 +1778,6 @@
     <row r="33" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
